--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1777,28 +1777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.0216641873226</v>
+        <v>350.0510358127534</v>
       </c>
       <c r="AB2" t="n">
-        <v>358.5096005210856</v>
+        <v>478.9552703607867</v>
       </c>
       <c r="AC2" t="n">
-        <v>324.293947418737</v>
+        <v>433.2444515754962</v>
       </c>
       <c r="AD2" t="n">
-        <v>262021.6641873227</v>
+        <v>350051.0358127534</v>
       </c>
       <c r="AE2" t="n">
-        <v>358509.6005210857</v>
+        <v>478955.2703607867</v>
       </c>
       <c r="AF2" t="n">
         <v>8.633112614949811e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.18287037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>324293.9474187371</v>
+        <v>433244.4515754962</v>
       </c>
     </row>
     <row r="3">
@@ -1883,28 +1883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>179.068898793014</v>
+        <v>247.4870624589663</v>
       </c>
       <c r="AB3" t="n">
-        <v>245.0099672907535</v>
+        <v>338.6227172148157</v>
       </c>
       <c r="AC3" t="n">
-        <v>221.6265598862439</v>
+        <v>306.305040343903</v>
       </c>
       <c r="AD3" t="n">
-        <v>179068.898793014</v>
+        <v>247487.0624589663</v>
       </c>
       <c r="AE3" t="n">
-        <v>245009.9672907535</v>
+        <v>338622.7172148157</v>
       </c>
       <c r="AF3" t="n">
         <v>1.169266505229171e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.42592592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>221626.5598862439</v>
+        <v>306305.040343903</v>
       </c>
     </row>
     <row r="4">
@@ -1989,28 +1989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>166.0173634773411</v>
+        <v>234.5028469509978</v>
       </c>
       <c r="AB4" t="n">
-        <v>227.1522808787581</v>
+        <v>320.8571407336617</v>
       </c>
       <c r="AC4" t="n">
-        <v>205.4731860019833</v>
+        <v>290.2349855479616</v>
       </c>
       <c r="AD4" t="n">
-        <v>166017.3634773411</v>
+        <v>234502.8469509978</v>
       </c>
       <c r="AE4" t="n">
-        <v>227152.2808787581</v>
+        <v>320857.1407336617</v>
       </c>
       <c r="AF4" t="n">
         <v>1.210477301510893e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.96296296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>205473.1860019833</v>
+        <v>290234.9855479616</v>
       </c>
     </row>
   </sheetData>
@@ -2286,28 +2286,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>208.6544260085683</v>
+        <v>286.0988192094358</v>
       </c>
       <c r="AB2" t="n">
-        <v>285.4901908483974</v>
+        <v>391.4530262314535</v>
       </c>
       <c r="AC2" t="n">
-        <v>258.2434077219098</v>
+        <v>354.0932988156957</v>
       </c>
       <c r="AD2" t="n">
-        <v>208654.4260085683</v>
+        <v>286098.8192094358</v>
       </c>
       <c r="AE2" t="n">
-        <v>285490.1908483974</v>
+        <v>391453.0262314535</v>
       </c>
       <c r="AF2" t="n">
         <v>1.090685158902117e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.74074074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>258243.4077219098</v>
+        <v>354093.2988156957</v>
       </c>
     </row>
     <row r="3">
@@ -2392,28 +2392,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>171.8572499083683</v>
+        <v>229.9073904200926</v>
       </c>
       <c r="AB3" t="n">
-        <v>235.1426711312917</v>
+        <v>314.5694343708467</v>
       </c>
       <c r="AC3" t="n">
-        <v>212.7009846234008</v>
+        <v>284.5473690555604</v>
       </c>
       <c r="AD3" t="n">
-        <v>171857.2499083683</v>
+        <v>229907.3904200926</v>
       </c>
       <c r="AE3" t="n">
-        <v>235142.6711312917</v>
+        <v>314569.4343708467</v>
       </c>
       <c r="AF3" t="n">
         <v>1.313371472651869e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.0787037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>212700.9846234008</v>
+        <v>284547.3690555603</v>
       </c>
     </row>
   </sheetData>
@@ -2689,28 +2689,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.3365116157796</v>
+        <v>237.7575639861599</v>
       </c>
       <c r="AB2" t="n">
-        <v>235.7984181429058</v>
+        <v>325.31038816915</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.2941480605734</v>
+        <v>294.2632212983803</v>
       </c>
       <c r="AD2" t="n">
-        <v>172336.5116157796</v>
+        <v>237757.5639861599</v>
       </c>
       <c r="AE2" t="n">
-        <v>235798.4181429058</v>
+        <v>325310.38816915</v>
       </c>
       <c r="AF2" t="n">
         <v>1.683880499634861e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.23611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>213294.1480605734</v>
+        <v>294263.2212983803</v>
       </c>
     </row>
   </sheetData>
@@ -2986,28 +2986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>165.2002349364983</v>
+        <v>231.4767406093644</v>
       </c>
       <c r="AB2" t="n">
-        <v>226.0342495600106</v>
+        <v>316.7166885346513</v>
       </c>
       <c r="AC2" t="n">
-        <v>204.46185802313</v>
+        <v>286.4896922956623</v>
       </c>
       <c r="AD2" t="n">
-        <v>165200.2349364983</v>
+        <v>231476.7406093644</v>
       </c>
       <c r="AE2" t="n">
-        <v>226034.2495600106</v>
+        <v>316716.6885346513</v>
       </c>
       <c r="AF2" t="n">
         <v>1.542301484979872e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.46064814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>204461.85802313</v>
+        <v>286489.6922956623</v>
       </c>
     </row>
     <row r="3">
@@ -3092,28 +3092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>165.5090093222081</v>
+        <v>231.7855149950741</v>
       </c>
       <c r="AB3" t="n">
-        <v>226.4567282967029</v>
+        <v>317.1391672713436</v>
       </c>
       <c r="AC3" t="n">
-        <v>204.8440159821452</v>
+        <v>286.8718502546775</v>
       </c>
       <c r="AD3" t="n">
-        <v>165509.0093222081</v>
+        <v>231785.5149950741</v>
       </c>
       <c r="AE3" t="n">
-        <v>226456.7282967029</v>
+        <v>317139.1672713436</v>
       </c>
       <c r="AF3" t="n">
         <v>1.542229744187716e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.46064814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>204844.0159821452</v>
+        <v>286871.8502546775</v>
       </c>
     </row>
   </sheetData>
@@ -3389,28 +3389,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>180.5114483238225</v>
+        <v>254.4199086267538</v>
       </c>
       <c r="AB2" t="n">
-        <v>246.9837271995986</v>
+        <v>348.1085431971644</v>
       </c>
       <c r="AC2" t="n">
-        <v>223.4119469195789</v>
+        <v>314.8855524079399</v>
       </c>
       <c r="AD2" t="n">
-        <v>180511.4483238226</v>
+        <v>254419.9086267538</v>
       </c>
       <c r="AE2" t="n">
-        <v>246983.7271995986</v>
+        <v>348108.5431971644</v>
       </c>
       <c r="AF2" t="n">
         <v>1.788749269275604e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.34722222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>223411.9469195789</v>
+        <v>314885.5524079399</v>
       </c>
     </row>
   </sheetData>
@@ -3686,28 +3686,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>223.9985422757464</v>
+        <v>301.6026520586589</v>
       </c>
       <c r="AB2" t="n">
-        <v>306.484687659774</v>
+        <v>412.6660543165928</v>
       </c>
       <c r="AC2" t="n">
-        <v>277.2342192235766</v>
+        <v>373.2817852730612</v>
       </c>
       <c r="AD2" t="n">
-        <v>223998.5422757464</v>
+        <v>301602.6520586589</v>
       </c>
       <c r="AE2" t="n">
-        <v>306484.687659774</v>
+        <v>412666.0543165928</v>
       </c>
       <c r="AF2" t="n">
         <v>1.026038977456898e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.33101851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>277234.2192235766</v>
+        <v>373281.7852730613</v>
       </c>
     </row>
     <row r="3">
@@ -3792,28 +3792,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>172.7084906521588</v>
+        <v>230.9289084561951</v>
       </c>
       <c r="AB3" t="n">
-        <v>236.3073762710365</v>
+        <v>315.9671204140365</v>
       </c>
       <c r="AC3" t="n">
-        <v>213.7545319392827</v>
+        <v>285.8116619044532</v>
       </c>
       <c r="AD3" t="n">
-        <v>172708.4906521589</v>
+        <v>230928.9084561951</v>
       </c>
       <c r="AE3" t="n">
-        <v>236307.3762710365</v>
+        <v>315967.1204140365</v>
       </c>
       <c r="AF3" t="n">
         <v>1.287884379341272e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.00925925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>213754.5319392827</v>
+        <v>285811.6619044532</v>
       </c>
     </row>
     <row r="4">
@@ -3898,28 +3898,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>172.9198886059989</v>
+        <v>231.1403064100352</v>
       </c>
       <c r="AB4" t="n">
-        <v>236.5966202776999</v>
+        <v>316.2563644206998</v>
       </c>
       <c r="AC4" t="n">
-        <v>214.0161709039067</v>
+        <v>286.0733008690772</v>
       </c>
       <c r="AD4" t="n">
-        <v>172919.8886059989</v>
+        <v>231140.3064100351</v>
       </c>
       <c r="AE4" t="n">
-        <v>236596.6202776999</v>
+        <v>316256.3644206998</v>
       </c>
       <c r="AF4" t="n">
         <v>1.287305203491052e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.02083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>214016.1709039067</v>
+        <v>286073.3008690772</v>
       </c>
     </row>
   </sheetData>
@@ -4195,28 +4195,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.5417709028331</v>
+        <v>262.990598000159</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.3394129419098</v>
+        <v>359.8353385101512</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.5884233559617</v>
+        <v>325.4931588348111</v>
       </c>
       <c r="AD2" t="n">
-        <v>189541.7709028331</v>
+        <v>262990.598000159</v>
       </c>
       <c r="AE2" t="n">
-        <v>259339.4129419097</v>
+        <v>359835.3385101513</v>
       </c>
       <c r="AF2" t="n">
         <v>1.842681219689858e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.30787037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>234588.4233559617</v>
+        <v>325493.1588348111</v>
       </c>
     </row>
   </sheetData>
@@ -4492,28 +4492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.3929805820537</v>
+        <v>251.4447672594997</v>
       </c>
       <c r="AB2" t="n">
-        <v>252.2946108764253</v>
+        <v>344.0378235245158</v>
       </c>
       <c r="AC2" t="n">
-        <v>228.215967312163</v>
+        <v>311.2033365075566</v>
       </c>
       <c r="AD2" t="n">
-        <v>184392.9805820537</v>
+        <v>251444.7672594997</v>
       </c>
       <c r="AE2" t="n">
-        <v>252294.6108764253</v>
+        <v>344037.8235245158</v>
       </c>
       <c r="AF2" t="n">
         <v>1.311477445389034e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.23611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>228215.967312163</v>
+        <v>311203.3365075566</v>
       </c>
     </row>
     <row r="3">
@@ -4598,28 +4598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>168.5250555467303</v>
+        <v>226.0225638593642</v>
       </c>
       <c r="AB3" t="n">
-        <v>230.5834157996607</v>
+        <v>309.2540432840086</v>
       </c>
       <c r="AC3" t="n">
-        <v>208.5768582216643</v>
+        <v>279.7392714338502</v>
       </c>
       <c r="AD3" t="n">
-        <v>168525.0555467303</v>
+        <v>226022.5638593642</v>
       </c>
       <c r="AE3" t="n">
-        <v>230583.4157996607</v>
+        <v>309254.0432840086</v>
       </c>
       <c r="AF3" t="n">
         <v>1.419350119648698e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.15972222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>208576.8582216642</v>
+        <v>279739.2714338502</v>
       </c>
     </row>
   </sheetData>
@@ -4895,28 +4895,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>204.0280127574213</v>
+        <v>281.1352509983781</v>
       </c>
       <c r="AB2" t="n">
-        <v>279.1601281352335</v>
+        <v>384.6616532279095</v>
       </c>
       <c r="AC2" t="n">
-        <v>252.5174773097893</v>
+        <v>347.9500849198581</v>
       </c>
       <c r="AD2" t="n">
-        <v>204028.0127574213</v>
+        <v>281135.2509983781</v>
       </c>
       <c r="AE2" t="n">
-        <v>279160.1281352335</v>
+        <v>384661.6532279095</v>
       </c>
       <c r="AF2" t="n">
         <v>1.152879585690344e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.28935185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>252517.4773097893</v>
+        <v>347950.0849198581</v>
       </c>
     </row>
     <row r="3">
@@ -5001,28 +5001,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.6786414502862</v>
+        <v>228.5520296619414</v>
       </c>
       <c r="AB3" t="n">
-        <v>233.5300470424091</v>
+        <v>312.7149699872486</v>
       </c>
       <c r="AC3" t="n">
-        <v>211.2422671142285</v>
+        <v>282.8698921499752</v>
       </c>
       <c r="AD3" t="n">
-        <v>170678.6414502862</v>
+        <v>228552.0296619414</v>
       </c>
       <c r="AE3" t="n">
-        <v>233530.0470424091</v>
+        <v>312714.9699872486</v>
       </c>
       <c r="AF3" t="n">
         <v>1.347158268877734e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.0787037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>211242.2671142285</v>
+        <v>282869.8921499752</v>
       </c>
     </row>
   </sheetData>
@@ -5298,28 +5298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>245.8467316538486</v>
+        <v>333.7122464447924</v>
       </c>
       <c r="AB2" t="n">
-        <v>336.378344240967</v>
+        <v>456.5998179310282</v>
       </c>
       <c r="AC2" t="n">
-        <v>304.2748671766805</v>
+        <v>413.0225721495594</v>
       </c>
       <c r="AD2" t="n">
-        <v>245846.7316538486</v>
+        <v>333712.2464447924</v>
       </c>
       <c r="AE2" t="n">
-        <v>336378.344240967</v>
+        <v>456599.8179310282</v>
       </c>
       <c r="AF2" t="n">
         <v>9.127854904500159e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.55787037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>304274.8671766805</v>
+        <v>413022.5721495594</v>
       </c>
     </row>
     <row r="3">
@@ -5404,28 +5404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>175.9318011734089</v>
+        <v>234.4756566451116</v>
       </c>
       <c r="AB3" t="n">
-        <v>240.7176519286327</v>
+        <v>320.8199377575966</v>
       </c>
       <c r="AC3" t="n">
-        <v>217.7438970779801</v>
+        <v>290.2013331717174</v>
       </c>
       <c r="AD3" t="n">
-        <v>175931.8011734089</v>
+        <v>234475.6566451116</v>
       </c>
       <c r="AE3" t="n">
-        <v>240717.6519286327</v>
+        <v>320819.9377575966</v>
       </c>
       <c r="AF3" t="n">
         <v>1.218491725569262e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.14814814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>217743.89707798</v>
+        <v>290201.3331717174</v>
       </c>
     </row>
     <row r="4">
@@ -5510,28 +5510,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>175.002471555465</v>
+        <v>233.5463270271676</v>
       </c>
       <c r="AB4" t="n">
-        <v>239.4461021462332</v>
+        <v>319.5483879751972</v>
       </c>
       <c r="AC4" t="n">
-        <v>216.5937022221811</v>
+        <v>289.0511383159184</v>
       </c>
       <c r="AD4" t="n">
-        <v>175002.471555465</v>
+        <v>233546.3270271677</v>
       </c>
       <c r="AE4" t="n">
-        <v>239446.1021462332</v>
+        <v>319548.3879751972</v>
       </c>
       <c r="AF4" t="n">
         <v>1.230923760671929e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>14</v>
+        <v>13.02083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>216593.7022221811</v>
+        <v>289051.1383159184</v>
       </c>
     </row>
   </sheetData>
@@ -5807,28 +5807,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>167.4780830473889</v>
+        <v>234.1162769718304</v>
       </c>
       <c r="AB2" t="n">
-        <v>229.1509018368957</v>
+        <v>320.3282186339013</v>
       </c>
       <c r="AC2" t="n">
-        <v>207.2810613809591</v>
+        <v>289.7565430310552</v>
       </c>
       <c r="AD2" t="n">
-        <v>167478.0830473889</v>
+        <v>234116.2769718304</v>
       </c>
       <c r="AE2" t="n">
-        <v>229150.9018368957</v>
+        <v>320328.2186339013</v>
       </c>
       <c r="AF2" t="n">
         <v>1.473432463293817e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.55324074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>207281.0613809591</v>
+        <v>289756.5430310552</v>
       </c>
     </row>
     <row r="3">
@@ -5913,28 +5913,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>166.1553444431341</v>
+        <v>232.6920531410904</v>
       </c>
       <c r="AB3" t="n">
-        <v>227.3410725234465</v>
+        <v>318.3795327563628</v>
       </c>
       <c r="AC3" t="n">
-        <v>205.6439596370735</v>
+        <v>287.9938369986706</v>
       </c>
       <c r="AD3" t="n">
-        <v>166155.3444431341</v>
+        <v>232692.0531410904</v>
       </c>
       <c r="AE3" t="n">
-        <v>227341.0725234465</v>
+        <v>318379.5327563628</v>
       </c>
       <c r="AF3" t="n">
         <v>1.502910432292281e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.28703703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>205643.9596370735</v>
+        <v>287993.8369986707</v>
       </c>
     </row>
   </sheetData>
@@ -6210,28 +6210,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>163.6526995134778</v>
+        <v>238.7918356250896</v>
       </c>
       <c r="AB2" t="n">
-        <v>223.9168433217905</v>
+        <v>326.7255242543772</v>
       </c>
       <c r="AC2" t="n">
-        <v>202.5465340644865</v>
+        <v>295.5432987817899</v>
       </c>
       <c r="AD2" t="n">
-        <v>163652.6995134778</v>
+        <v>238791.8356250896</v>
       </c>
       <c r="AE2" t="n">
-        <v>223916.8433217905</v>
+        <v>326725.5242543772</v>
       </c>
       <c r="AF2" t="n">
         <v>1.631298581353566e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.92361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>202546.5340644865</v>
+        <v>295543.29878179</v>
       </c>
     </row>
   </sheetData>
@@ -10192,28 +10192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.623165580302</v>
+        <v>246.0367395027386</v>
       </c>
       <c r="AB2" t="n">
-        <v>234.8223866265598</v>
+        <v>336.6383213623728</v>
       </c>
       <c r="AC2" t="n">
-        <v>212.4112676222784</v>
+        <v>304.5100324464997</v>
       </c>
       <c r="AD2" t="n">
-        <v>171623.165580302</v>
+        <v>246036.7395027386</v>
       </c>
       <c r="AE2" t="n">
-        <v>234822.3866265598</v>
+        <v>336638.3213623728</v>
       </c>
       <c r="AF2" t="n">
         <v>1.735729441123976e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.69907407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>212411.2676222784</v>
+        <v>304510.0324464997</v>
       </c>
     </row>
   </sheetData>
@@ -10489,28 +10489,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.0057335322742</v>
+        <v>290.9978527942729</v>
       </c>
       <c r="AB2" t="n">
-        <v>285.9708653009258</v>
+        <v>398.1561001123357</v>
       </c>
       <c r="AC2" t="n">
-        <v>258.6782072793197</v>
+        <v>360.1566407332098</v>
       </c>
       <c r="AD2" t="n">
-        <v>209005.7335322742</v>
+        <v>290997.8527942729</v>
       </c>
       <c r="AE2" t="n">
-        <v>285970.8653009257</v>
+        <v>398156.1001123356</v>
       </c>
       <c r="AF2" t="n">
         <v>1.860559572731532e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.13657407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>258678.2072793198</v>
+        <v>360156.6407332098</v>
       </c>
     </row>
   </sheetData>
@@ -10786,28 +10786,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.2413439465906</v>
+        <v>266.1706600655496</v>
       </c>
       <c r="AB2" t="n">
-        <v>258.928355526477</v>
+        <v>364.1864397224556</v>
       </c>
       <c r="AC2" t="n">
-        <v>234.216596683335</v>
+        <v>329.4289970542221</v>
       </c>
       <c r="AD2" t="n">
-        <v>189241.3439465906</v>
+        <v>266170.6600655496</v>
       </c>
       <c r="AE2" t="n">
-        <v>258928.3555264771</v>
+        <v>364186.4397224556</v>
       </c>
       <c r="AF2" t="n">
         <v>1.228852224449453e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.74537037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>234216.596683335</v>
+        <v>329428.997054222</v>
       </c>
     </row>
     <row r="3">
@@ -10892,28 +10892,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>169.5313114865066</v>
+        <v>227.2207682508853</v>
       </c>
       <c r="AB3" t="n">
-        <v>231.9602195693409</v>
+        <v>310.8934793935341</v>
       </c>
       <c r="AC3" t="n">
-        <v>209.8222617719229</v>
+        <v>281.2222420620461</v>
       </c>
       <c r="AD3" t="n">
-        <v>169531.3114865065</v>
+        <v>227220.7682508853</v>
       </c>
       <c r="AE3" t="n">
-        <v>231960.2195693409</v>
+        <v>310893.4793935341</v>
       </c>
       <c r="AF3" t="n">
         <v>1.385128604489281e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.0787037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>209822.2617719228</v>
+        <v>281222.2420620461</v>
       </c>
     </row>
   </sheetData>
@@ -11189,28 +11189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>229.308756325568</v>
+        <v>316.9015500434294</v>
       </c>
       <c r="AB2" t="n">
-        <v>313.7503567928462</v>
+        <v>433.5986814791001</v>
       </c>
       <c r="AC2" t="n">
-        <v>283.8064630920214</v>
+        <v>392.2166318783056</v>
       </c>
       <c r="AD2" t="n">
-        <v>229308.756325568</v>
+        <v>316901.5500434294</v>
       </c>
       <c r="AE2" t="n">
-        <v>313750.3567928462</v>
+        <v>433598.6814791001</v>
       </c>
       <c r="AF2" t="n">
         <v>9.70534281187212e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.875</v>
       </c>
       <c r="AH2" t="n">
-        <v>283806.4630920214</v>
+        <v>392216.6318783056</v>
       </c>
     </row>
     <row r="3">
@@ -11295,28 +11295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>174.1059236386683</v>
+        <v>232.4907420075034</v>
       </c>
       <c r="AB3" t="n">
-        <v>238.2194057335701</v>
+        <v>318.1040899821689</v>
       </c>
       <c r="AC3" t="n">
-        <v>215.4840799934629</v>
+        <v>287.7446820962593</v>
       </c>
       <c r="AD3" t="n">
-        <v>174105.9236386683</v>
+        <v>232490.7420075034</v>
       </c>
       <c r="AE3" t="n">
-        <v>238219.40573357</v>
+        <v>318104.0899821689</v>
       </c>
       <c r="AF3" t="n">
         <v>1.254568937714972e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.05555555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>215484.0799934629</v>
+        <v>287744.6820962593</v>
       </c>
     </row>
     <row r="4">
@@ -11401,28 +11401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>164.0739725119586</v>
+        <v>232.1941086438963</v>
       </c>
       <c r="AB4" t="n">
-        <v>224.4932476235647</v>
+        <v>317.6982231275415</v>
       </c>
       <c r="AC4" t="n">
-        <v>203.0679271486881</v>
+        <v>287.3775506045998</v>
       </c>
       <c r="AD4" t="n">
-        <v>164073.9725119586</v>
+        <v>232194.1086438963</v>
       </c>
       <c r="AE4" t="n">
-        <v>224493.2476235646</v>
+        <v>317698.2231275415</v>
       </c>
       <c r="AF4" t="n">
         <v>1.259591967657552e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>13</v>
+        <v>12.99768518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>203067.9271486881</v>
+        <v>287377.5506045998</v>
       </c>
     </row>
   </sheetData>
@@ -11698,28 +11698,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>249.2590263908768</v>
+        <v>348.5180695182842</v>
       </c>
       <c r="AB2" t="n">
-        <v>341.0471964399859</v>
+        <v>476.857798246994</v>
       </c>
       <c r="AC2" t="n">
-        <v>308.4981306746018</v>
+        <v>431.3471592564234</v>
       </c>
       <c r="AD2" t="n">
-        <v>249259.0263908769</v>
+        <v>348518.0695182842</v>
       </c>
       <c r="AE2" t="n">
-        <v>341047.1964399859</v>
+        <v>476857.798246994</v>
       </c>
       <c r="AF2" t="n">
         <v>1.791371588955172e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.17592592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>308498.1306746018</v>
+        <v>431347.1592564234</v>
       </c>
     </row>
   </sheetData>
@@ -11995,28 +11995,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.6534468392917</v>
+        <v>230.7552018628925</v>
       </c>
       <c r="AB2" t="n">
-        <v>225.2861099628244</v>
+        <v>315.7294473896861</v>
       </c>
       <c r="AC2" t="n">
-        <v>203.7851198190785</v>
+        <v>285.5966720599705</v>
       </c>
       <c r="AD2" t="n">
-        <v>164653.4468392917</v>
+        <v>230755.2018628925</v>
       </c>
       <c r="AE2" t="n">
-        <v>225286.1099628244</v>
+        <v>315729.4473896861</v>
       </c>
       <c r="AF2" t="n">
         <v>1.580553567867809e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.7037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>203785.1198190785</v>
+        <v>285596.6720599705</v>
       </c>
     </row>
   </sheetData>
@@ -12292,28 +12292,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>170.2449433369983</v>
+        <v>237.1295789808527</v>
       </c>
       <c r="AB2" t="n">
-        <v>232.9366421503985</v>
+        <v>324.4511513801459</v>
       </c>
       <c r="AC2" t="n">
-        <v>210.7054959522622</v>
+        <v>293.4859888625721</v>
       </c>
       <c r="AD2" t="n">
-        <v>170244.9433369983</v>
+        <v>237129.5789808527</v>
       </c>
       <c r="AE2" t="n">
-        <v>232936.6421503985</v>
+        <v>324451.1513801459</v>
       </c>
       <c r="AF2" t="n">
         <v>1.404235631377948e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.73842592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>210705.4959522622</v>
+        <v>293485.9888625721</v>
       </c>
     </row>
     <row r="3">
@@ -12398,28 +12398,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>167.7219029738635</v>
+        <v>234.5050533912327</v>
       </c>
       <c r="AB3" t="n">
-        <v>229.4845070168742</v>
+        <v>320.8601596825324</v>
       </c>
       <c r="AC3" t="n">
-        <v>207.5828277507783</v>
+        <v>290.2377163725891</v>
       </c>
       <c r="AD3" t="n">
-        <v>167721.9029738635</v>
+        <v>234505.0533912327</v>
       </c>
       <c r="AE3" t="n">
-        <v>229484.5070168742</v>
+        <v>320860.1596825324</v>
       </c>
       <c r="AF3" t="n">
         <v>1.452093288116022e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>14</v>
+        <v>13.28703703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>207582.8277507783</v>
+        <v>290237.7163725892</v>
       </c>
     </row>
   </sheetData>
